--- a/ccmcgraph.xlsx
+++ b/ccmcgraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiaNian Cen\Documents\GitHub\de-Souza-Smart-Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E066D-6503-4068-A681-58975CBB51A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F3917-85A3-43D8-8EF8-B3EEB90FC94F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7740" xr2:uid="{15E22F11-FDD2-42E4-B11F-16118C44C892}"/>
   </bookViews>
@@ -89,6 +89,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>One</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Year Predicition</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -127,6 +157,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Prediciton</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -306,7 +339,7 @@
                   <c:v>4.2989634499999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.579969220000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>9.4710957199999992</c:v>
@@ -374,6 +407,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Month</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Diff to 2016-01-01</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -436,6 +529,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Enrolment</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -485,6 +633,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1090,15 +1269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1426,7 +1605,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1810,7 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>-15.579969220000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
